--- a/Feature List.xlsx
+++ b/Feature List.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>Feature</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Design Heart (extra)</t>
+  </si>
+  <si>
+    <t>After Thoughts:</t>
   </si>
 </sst>
 </file>
@@ -252,18 +255,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="A36" activeCellId="0" pane="topLeft" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.3607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1764705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.0117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.84705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1">
@@ -808,6 +811,11 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -835,7 +843,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.84705882352941"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -860,7 +868,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.84705882352941"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
